--- a/PlanDeTest.xlsx
+++ b/PlanDeTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevingrondin/Documents/P5/GrondinKevin_5_18062021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3658AF2-8170-6F4F-B9E4-CA6DA6BE8CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0742B4D-AE62-3043-8815-0B356BA4A2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27360" windowHeight="16940" xr2:uid="{067B621D-E37C-B94F-B569-4FD354F52535}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="106">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -48,9 +48,6 @@
     <t>display.js</t>
   </si>
   <si>
-    <t>1 à 11</t>
-  </si>
-  <si>
     <t>displayteddy</t>
   </si>
   <si>
@@ -69,16 +66,7 @@
     <t>product.js</t>
   </si>
   <si>
-    <t>5 à 11</t>
-  </si>
-  <si>
-    <t>apiProduct</t>
-  </si>
-  <si>
     <t>L'API est appellée via la fonction, avec comme paramètre le type et l'id du produit  dans l'URL.</t>
-  </si>
-  <si>
-    <t>12 à 19</t>
   </si>
   <si>
     <t>Vérifier dans le LocalStorage si il y à bien la clef "Panier" avec des "[]"</t>
@@ -196,45 +184,15 @@
     <t xml:space="preserve">panier.js </t>
   </si>
   <si>
-    <t>1 à 24</t>
-  </si>
-  <si>
-    <t>storageData.forEach</t>
-  </si>
-  <si>
-    <t>Affiche les produits sur la page, avec un id qui affiche ID produit.</t>
-  </si>
-  <si>
     <t>Affiche le produit sur la page, avec les informations de celui-ci (Image, nom, description, couleur, prix).</t>
   </si>
   <si>
-    <t>Les produits s'affichent sur la page.</t>
-  </si>
-  <si>
-    <t>Si le localStorage est vide, affiche une page "Panier" vide.</t>
-  </si>
-  <si>
-    <t>25 à 43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Augmente la quantité dans le localStorage et dans le fichier HTML au clic sur le bouton + </t>
-  </si>
-  <si>
-    <t>Vérifier dans le localStorage si les quantités augmentent, ou, via un console.log().</t>
-  </si>
-  <si>
     <t>La quantité peut ne pas changer.</t>
   </si>
   <si>
-    <t>44 à 64</t>
-  </si>
-  <si>
     <t>eventListener clic // Si la quantité diminue et passe à 0</t>
   </si>
   <si>
-    <t>eventListener clic // Si la quantité augmente</t>
-  </si>
-  <si>
     <t xml:space="preserve">Supprime une quantité, et supprime l'index du produit en question. </t>
   </si>
   <si>
@@ -247,12 +205,6 @@
     <t>Supprime une quantité du produit dans le localStorage.</t>
   </si>
   <si>
-    <t>65 à 78</t>
-  </si>
-  <si>
-    <t>79 à 93</t>
-  </si>
-  <si>
     <t>displayPrice</t>
   </si>
   <si>
@@ -268,79 +220,175 @@
     <t>form.js</t>
   </si>
   <si>
-    <t>1 à 19</t>
-  </si>
-  <si>
     <t>validation.onclick</t>
   </si>
   <si>
-    <t>20 à 44</t>
-  </si>
-  <si>
-    <t>Envoie les données à l'API et obtient une promesse qui est stockée dans le localStorage sous la clef "order" puis redirige vers la page suivante.</t>
-  </si>
-  <si>
-    <t>Regarder si les informations ont bien été transmises dans la clef order dans le localStorage.</t>
-  </si>
-  <si>
-    <t>Les données peuvent être vide si le formulaire est vide.</t>
-  </si>
-  <si>
-    <t>45 à 50</t>
-  </si>
-  <si>
     <t>redirectionJavascript</t>
   </si>
   <si>
     <t>Redirige vers la page suivante.</t>
   </si>
   <si>
-    <t>Peut ne pas renvoyer vers la page suivante.</t>
-  </si>
-  <si>
     <t>validation.js</t>
   </si>
   <si>
-    <t>Envoie le numéro de commande stocké dans le localStorage, à la clef order, sur la page HTML.</t>
-  </si>
-  <si>
-    <t>La clef est sur le site ou console.log().</t>
-  </si>
-  <si>
-    <t>Peut ne pas afficher de numéro de commande, si le formulaire est vide.</t>
-  </si>
-  <si>
-    <t>setPrice</t>
-  </si>
-  <si>
-    <t>Recalcule le prix total.</t>
-  </si>
-  <si>
-    <t>Le prix est sur le site ou console.log().</t>
-  </si>
-  <si>
-    <t>Peut ne pas afficher le prix si le panier est vide.</t>
-  </si>
-  <si>
-    <t>12 à 27</t>
-  </si>
-  <si>
-    <t>28 à 34</t>
-  </si>
-  <si>
-    <t>finDeCommande.onclick</t>
-  </si>
-  <si>
-    <t>Vérifier dans le localStorage si les clef on été supprimées.</t>
-  </si>
-  <si>
-    <t>Supprimer les clef du localStorage au clic sur "Fin de commande" puis redirige sur la page d'accueil.</t>
-  </si>
-  <si>
-    <t>Peut ne pas supprimer les clefs.</t>
-  </si>
-  <si>
-    <t>35 à 40</t>
+    <t>9 à 19</t>
+  </si>
+  <si>
+    <t>displayCart()</t>
+  </si>
+  <si>
+    <t>53 à 73</t>
+  </si>
+  <si>
+    <t>74 à 83</t>
+  </si>
+  <si>
+    <t>94 à 107</t>
+  </si>
+  <si>
+    <t>1 à 86</t>
+  </si>
+  <si>
+    <t>Affiche les produits sur la page panier. Avec la possibilité de modifier les quantités.</t>
+  </si>
+  <si>
+    <t>Les produits s'affichent sur la page et les quantités sont modifiables, ceci est visible dans le localStorage.</t>
+  </si>
+  <si>
+    <t>Le localStorage est vide, les quantités peuvent ne pas fonctionner.</t>
+  </si>
+  <si>
+    <t>8 à 14</t>
+  </si>
+  <si>
+    <t>if // (localStorage vide ou la clef "Panier" vide.</t>
+  </si>
+  <si>
+    <t>Vérifier le localStorage puis, tenter de valider la commande.</t>
+  </si>
+  <si>
+    <t>15 à 34</t>
+  </si>
+  <si>
+    <t>else // Boucle sur les produits de la clef "Panier"</t>
+  </si>
+  <si>
+    <t>Affiche une alerte "Votre panier est vide" à la validation du panier/formulaire. Affiche "panier vide" au centre de la page.</t>
+  </si>
+  <si>
+    <t>Vérifier la clef "Panier".</t>
+  </si>
+  <si>
+    <t>35 à 83</t>
+  </si>
+  <si>
+    <t>on click</t>
+  </si>
+  <si>
+    <t>Change les quantités.</t>
+  </si>
+  <si>
+    <t>Vérifier les clefs dans le localStorage. L'index 5 de chaque élément du tableau doit changer.</t>
+  </si>
+  <si>
+    <t>La clef peut etre vide.</t>
+  </si>
+  <si>
+    <t>42 à 52</t>
+  </si>
+  <si>
+    <t>onclick // Augmente la quantité.</t>
+  </si>
+  <si>
+    <t>Augmente la quantité sur la page HTML et dans le localStorage.</t>
+  </si>
+  <si>
+    <t>Vérifier au clic sur quantité + que la fonction fonctionne. Et regarder dans le local storage que l'index 5 de chaque élément du tableau augmente de 1 unité.</t>
+  </si>
+  <si>
+    <t>La quantité peut ne pas changer dans le localStorage mais changer sur la page HTML.</t>
+  </si>
+  <si>
+    <t>1 à 52</t>
+  </si>
+  <si>
+    <t>sendOrder()</t>
+  </si>
+  <si>
+    <t>La fonction permet d'envoyer une requete contenant les produits ainsi que les données du formulaire à l'API teddy, et redirige vers la page suivante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifier à l'aide d'un console.log() de la fonction, si la promesse de la requete est bien rendue. </t>
+  </si>
+  <si>
+    <t>Si le panier est vide, envoie à l'API un requete vide. Si le formulaire est vide, envoie une requete vide.</t>
+  </si>
+  <si>
+    <t>16 à 26</t>
+  </si>
+  <si>
+    <t>Si le formulaire n'est pas correctement rempli, renvoie une alerte "Veuillez remplir correctement le formulaire"</t>
+  </si>
+  <si>
+    <t>Vérifier que l'alerte s'affiche, et que la clef "order" n'est pas créée dans le localStorage</t>
+  </si>
+  <si>
+    <t>Le formulaire peut être vide. Le panier peut être vide lors de la création du formulaire.</t>
+  </si>
+  <si>
+    <t>27 à 52</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>Envoie les données à l'API, créée la clef "order" dans le localStorage, avec les données récupérées dans le formulaire. Puis, redirige vers la page suivante.</t>
+  </si>
+  <si>
+    <t>Vérifier que la clef "order" est bien créée, et remplie avec les données du formulaire.</t>
+  </si>
+  <si>
+    <t>Les données du formulaire peuvent être erronées et comporter des noms/prénoms/adresse/mail non conforme à des noms dits "normaux".</t>
+  </si>
+  <si>
+    <t>53 à 57</t>
+  </si>
+  <si>
+    <t>Vérifier à l'aide d'un console.log(), puis observer si la redirection fonctionne.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 à 12 </t>
+  </si>
+  <si>
+    <t>Récupère la clef "order" et envoie le numéro de commande afin de l'afficher sur la page.</t>
+  </si>
+  <si>
+    <t>Vérifier la clef "order".</t>
+  </si>
+  <si>
+    <t>Peut ne pas afficher le numéro de commande si la clef "order" est vide.</t>
+  </si>
+  <si>
+    <t>13 à 27</t>
+  </si>
+  <si>
+    <t>setPrice()</t>
+  </si>
+  <si>
+    <t>Calcul le prix total à partir des données de la clef "Panier"</t>
+  </si>
+  <si>
+    <t>Le total peut être erroné si les données de la clef "Panier" sont fausse, ou si la clef est vide.</t>
+  </si>
+  <si>
+    <t>28 à 40</t>
+  </si>
+  <si>
+    <t>Vide le localStorage, puis redirige vers la page d'accueil.</t>
+  </si>
+  <si>
+    <t>Redirige vers la page suivante. Et vérifier si le localStorage est bien vide.</t>
   </si>
 </sst>
 </file>
@@ -413,12 +461,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -735,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4DBCB2-A022-6E41-961C-75B9509A21A1}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -773,382 +824,461 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="136" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="153" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="B17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="E18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="19" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="F24" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="D25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
